--- a/AzentioAutomationFramework_FMS_Jay2/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/IISTestData.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="IIS_Params_Login" sheetId="2" r:id="rId2"/>
-    <sheet name="Accrual_Deal" sheetId="3" r:id="rId3"/>
+    <sheet name="IISParam_Login" sheetId="2" r:id="rId2"/>
+    <sheet name="IIS_AccuralDeal_610" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>UserType</t>
   </si>
@@ -111,41 +111,71 @@
     <t>DataSet ID</t>
   </si>
   <si>
-    <t>Track Nbr</t>
-  </si>
-  <si>
-    <t>Party Value</t>
-  </si>
-  <si>
-    <t>Charge Code</t>
-  </si>
-  <si>
     <t>Product Class</t>
   </si>
   <si>
+    <t>TestCase</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
     <t>Amount</t>
   </si>
   <si>
-    <t>Deal Nbr</t>
-  </si>
-  <si>
-    <t>AT_IC_010</t>
-  </si>
-  <si>
-    <t>DS_AT_IC_010</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>DS_Test</t>
+    <t>Tenure</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>101101</t>
+  </si>
+  <si>
+    <t>Maturity GL</t>
+  </si>
+  <si>
+    <t>Nostro GL</t>
+  </si>
+  <si>
+    <t>Settlement Type</t>
+  </si>
+  <si>
+    <t>Demand Deposit Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Of Payments </t>
+  </si>
+  <si>
+    <t>Pay Every</t>
+  </si>
+  <si>
+    <t>Next Installment</t>
+  </si>
+  <si>
+    <t>Charge Allocation Criteria</t>
+  </si>
+  <si>
+    <t>Party Amt</t>
+  </si>
+  <si>
+    <t>Settlement Nbr</t>
+  </si>
+  <si>
+    <t>AT_AD_010</t>
+  </si>
+  <si>
+    <t>AT_AD_010_D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,15 +204,28 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
       <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF362B36"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -261,30 +304,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -583,12 +628,20 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +658,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -622,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -639,7 +692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -656,7 +709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -673,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -690,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -707,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -724,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -741,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -758,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -775,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -792,7 +845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -819,12 +872,20 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +902,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1">
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -858,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1">
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -875,7 +936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -892,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -909,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="2" customFormat="1">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -926,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -943,7 +1004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="2" customFormat="1">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -960,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="2" customFormat="1">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -977,7 +1038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="2" customFormat="1">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -994,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1011,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1028,7 +1089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1052,43 +1113,48 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="43.42578125" customWidth="1"/>
-    <col min="9" max="9" width="34.28515625" customWidth="1"/>
+    <col min="1" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1"/>
+    <col min="12" max="12" width="27.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" customWidth="1"/>
+    <col min="15" max="18" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30">
+    <row r="1" spans="1:18" s="7" customFormat="1" ht="51.75" customHeight="1">
       <c r="A1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>35</v>
@@ -1096,106 +1162,101 @@
       <c r="H1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="5"/>
+    </row>
+    <row r="2" spans="1:18" s="7" customFormat="1">
+      <c r="A2" s="8">
+        <v>128357</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="9">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="9">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9">
+        <v>118</v>
+      </c>
+      <c r="G2" s="9">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="9">
+        <v>4</v>
+      </c>
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="7">
-        <v>49</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9">
-        <v>727</v>
-      </c>
-      <c r="E3" s="9">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8">
-        <v>100</v>
-      </c>
-      <c r="G3" s="8">
-        <v>10500</v>
-      </c>
-      <c r="H3" s="8">
-        <v>5337</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="K2" s="9">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="9">
+        <v>48</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2" s="9">
+        <v>1000</v>
+      </c>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_Jay2/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_Jay2/TestData/IISTestData.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="28755" windowHeight="12345" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
-    <sheet name="IISParam_Login" sheetId="2" r:id="rId2"/>
-    <sheet name="IIS_AccuralDeal_610" sheetId="3" r:id="rId3"/>
+    <sheet name="IIS_Params_Login" sheetId="2" r:id="rId2"/>
+    <sheet name="IIS_Accrual_Deal_610" sheetId="3" r:id="rId3"/>
+    <sheet name="IIS_Accrual_Process_610" sheetId="4" r:id="rId4"/>
+    <sheet name="IIS_Advance_Payment_610" sheetId="6" r:id="rId5"/>
+    <sheet name="Advance_Principal_Set_610 " sheetId="7" r:id="rId6"/>
+    <sheet name="IIS_Asset_Management_610" sheetId="8" r:id="rId7"/>
+    <sheet name="MTSTestData" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
   <si>
     <t>UserType</t>
   </si>
@@ -114,6 +119,12 @@
     <t>Product Class</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>AT_AD_010</t>
+  </si>
+  <si>
     <t>TestCase</t>
   </si>
   <si>
@@ -123,59 +134,173 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Tenure</t>
   </si>
   <si>
     <t>Yield</t>
   </si>
   <si>
+    <t>Nostro GL</t>
+  </si>
+  <si>
+    <t>Maturity GL</t>
+  </si>
+  <si>
+    <t>Settlement Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Of Payments </t>
+  </si>
+  <si>
+    <t>Pay Every</t>
+  </si>
+  <si>
     <t>101101</t>
   </si>
   <si>
-    <t>Maturity GL</t>
-  </si>
-  <si>
-    <t>Nostro GL</t>
-  </si>
-  <si>
-    <t>Settlement Type</t>
-  </si>
-  <si>
     <t>Demand Deposit Account</t>
   </si>
   <si>
-    <t xml:space="preserve">No Of Payments </t>
-  </si>
-  <si>
-    <t>Pay Every</t>
-  </si>
-  <si>
-    <t>Next Installment</t>
-  </si>
-  <si>
-    <t>Charge Allocation Criteria</t>
-  </si>
-  <si>
-    <t>Party Amt</t>
-  </si>
-  <si>
-    <t>Settlement Nbr</t>
-  </si>
-  <si>
-    <t>AT_AD_010</t>
-  </si>
-  <si>
     <t>AT_AD_010_D1</t>
+  </si>
+  <si>
+    <t>AT_AD_011</t>
+  </si>
+  <si>
+    <t>AT_AD_011_D1</t>
+  </si>
+  <si>
+    <t>AT_AD_012</t>
+  </si>
+  <si>
+    <t>AT_AD_012_D1</t>
+  </si>
+  <si>
+    <t>AT_AD_013</t>
+  </si>
+  <si>
+    <t>AT_AD_014</t>
+  </si>
+  <si>
+    <t>AT_AD_013_D1</t>
+  </si>
+  <si>
+    <t>AT_AD_014_D1</t>
+  </si>
+  <si>
+    <t>435123</t>
+  </si>
+  <si>
+    <t>From Date</t>
+  </si>
+  <si>
+    <t>To Date</t>
+  </si>
+  <si>
+    <t>Party Amount</t>
+  </si>
+  <si>
+    <t>Additional Ref</t>
+  </si>
+  <si>
+    <t>Brief Name</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Menu Ref</t>
+  </si>
+  <si>
+    <t>Periodicity DD</t>
+  </si>
+  <si>
+    <t>Process Batch DD</t>
+  </si>
+  <si>
+    <t>Batch Run Date</t>
+  </si>
+  <si>
+    <t>EOD Test</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>AT_AP_068</t>
+  </si>
+  <si>
+    <t>AT_AM_002</t>
+  </si>
+  <si>
+    <t>AT_AM_002_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_011</t>
+  </si>
+  <si>
+    <t>AT_AP_011_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_012</t>
+  </si>
+  <si>
+    <t>AT_AP_012_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_072</t>
+  </si>
+  <si>
+    <t>AT_AP_072_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_076</t>
+  </si>
+  <si>
+    <t>AT_AP_076_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_077</t>
+  </si>
+  <si>
+    <t>AT_AP_077_D1</t>
+  </si>
+  <si>
+    <t>AT_APY_010</t>
+  </si>
+  <si>
+    <t>AT_APY_010_D1</t>
+  </si>
+  <si>
+    <t>AT_APS_009</t>
+  </si>
+  <si>
+    <t>AT_APS_009_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_073</t>
+  </si>
+  <si>
+    <t>AT_AP_073_D1</t>
+  </si>
+  <si>
+    <t>AT_AP_068_D1</t>
+  </si>
+  <si>
+    <t>AT_APS_008</t>
+  </si>
+  <si>
+    <t>AT_APS_008_D1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,28 +329,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF362B36"/>
-      <name val="Tahoma"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -309,13 +422,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -328,8 +444,9 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="1"/>
@@ -628,20 +745,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -658,7 +767,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -675,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -692,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -709,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -726,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -743,7 +852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -760,7 +869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -777,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -794,7 +903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -811,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" s="2" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -828,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -845,7 +954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -872,20 +981,12 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2" collapsed="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +1003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -919,7 +1020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
@@ -936,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -953,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" s="2" customFormat="1">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -970,7 +1071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" s="2" customFormat="1">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -987,7 +1088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" s="2" customFormat="1">
       <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
@@ -1004,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -1038,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" s="2" customFormat="1">
       <c r="A11" s="3" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
@@ -1089,7 +1190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" s="2" customFormat="1">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1113,150 +1214,1733 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="22.85546875" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1"/>
-    <col min="12" max="12" width="27.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" customWidth="1"/>
-    <col min="15" max="18" width="34.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="28.28515625" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1">
+      <c r="A2" s="9">
+        <v>128357</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="5" t="s">
+      <c r="C2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>118</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="K2" s="10">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="10">
+        <v>48</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4">
+        <v>128358</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="R1" s="5"/>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1">
-      <c r="A2" s="8">
-        <v>128357</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="D3" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>118</v>
+      </c>
+      <c r="G3" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10">
+        <v>411001</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="10">
+        <v>48</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4">
+        <v>128358</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D4" s="10">
         <v>1069</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F2" s="9">
-        <v>118</v>
-      </c>
-      <c r="G2" s="9">
+      <c r="F4" s="10">
+        <v>100</v>
+      </c>
+      <c r="G4" s="10">
         <v>100000</v>
       </c>
-      <c r="H2" s="9">
-        <v>4</v>
-      </c>
-      <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K2" s="9">
-        <v>411001</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="9">
-        <v>48</v>
-      </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="P2" s="9">
-        <v>1000</v>
-      </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4">
+        <v>128359</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>100</v>
+      </c>
+      <c r="G5" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="4">
+        <v>128360</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>100</v>
+      </c>
+      <c r="G6" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="22.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.7109375" customWidth="1"/>
+    <col min="14" max="17" width="19.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4">
+        <v>131073</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>118</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="10">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10">
+        <v>5</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="10">
+        <v>411001</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="10">
+        <v>48</v>
+      </c>
+      <c r="N2" s="10">
+        <v>1</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4">
+        <v>131158</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E3" s="10">
+        <v>3</v>
+      </c>
+      <c r="F3" s="10">
+        <v>118</v>
+      </c>
+      <c r="G3" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H3" s="10">
+        <v>4</v>
+      </c>
+      <c r="I3" s="10">
+        <v>5</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="10">
+        <v>411001</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="10">
+        <v>48</v>
+      </c>
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4">
+        <v>948791</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E4" s="10">
+        <v>3</v>
+      </c>
+      <c r="F4" s="10">
+        <v>100</v>
+      </c>
+      <c r="G4" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4">
+        <v>1340298</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>100</v>
+      </c>
+      <c r="G5" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="4">
+        <v>1376674</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="10">
+        <v>100</v>
+      </c>
+      <c r="G6" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="21.85546875" customWidth="1"/>
+    <col min="16" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="51.75" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4">
+        <v>1358320</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>100</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="4">
+        <v>258496</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1069</v>
+      </c>
+      <c r="E2" s="10">
+        <v>3</v>
+      </c>
+      <c r="F2" s="10">
+        <v>100</v>
+      </c>
+      <c r="G2" s="10">
+        <v>100000</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="10">
+        <v>143001</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.140625" customWidth="1"/>
+    <col min="12" max="12" width="29.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="73.5" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1">
+      <c r="A2" s="9">
+        <v>408271</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
+        <v>160</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.5703125" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="4">
+        <v>877012</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="10">
+        <v>86565</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="10">
+        <v>8656</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3" s="12">
+        <v>41037</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="4">
+        <v>953350</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10">
+        <v>86565</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="10">
+        <v>8656</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="12">
+        <v>41037</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="4">
+        <v>258495</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="10">
+        <v>86565</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="10">
+        <v>8656</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="12">
+        <v>41037</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>